--- a/data/trans_orig/IP3105-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP3105-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7BF67C7-B239-4D32-9FEE-F6B971CE1561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{132C08E6-FB76-406D-832A-19201FD758B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1FA1B3B8-1E7D-4D38-924F-8A97F7EB81DD}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{789FE1A4-7090-4867-888A-2C46ADFE31F8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="509">
   <si>
     <t>Menores según la frecuencia de tomar yogures en 2007 (Tasa respuesta: 93,11%)</t>
   </si>
@@ -115,13 +115,13 @@
     <t>0,75%</t>
   </si>
   <si>
-    <t>6,35%</t>
+    <t>7,06%</t>
   </si>
   <si>
     <t>0,8%</t>
   </si>
   <si>
-    <t>3,74%</t>
+    <t>4,01%</t>
   </si>
   <si>
     <t>1,55%</t>
@@ -130,1486 +130,1441 @@
     <t>0,39%</t>
   </si>
   <si>
-    <t>3,86%</t>
+    <t>3,52%</t>
   </si>
   <si>
     <t>3,94%</t>
   </si>
   <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>76,84%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
+  </si>
+  <si>
+    <t>72,38%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
     <t>1,57%</t>
   </si>
   <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>60,99%</t>
+  </si>
+  <si>
+    <t>68,77%</t>
+  </si>
+  <si>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>67,9%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según la frecuencia de tomar yogures en 2012 (Tasa respuesta: 91,76%)</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>62,29%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>Menores según la frecuencia de tomar yogures en 2016 (Tasa respuesta: 92,33%)</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>60,53%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>58,29%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>51,03%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
   </si>
   <si>
     <t>1,6%</t>
   </si>
   <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
   </si>
   <si>
     <t>22,38%</t>
   </si>
   <si>
-    <t>69,46%</t>
-  </si>
-  <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>60,86%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>58,61%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>61,6%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según la frecuencia de tomar yogures en 2012 (Tasa respuesta: 91,76%)</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>70,82%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>Menores según la frecuencia de tomar yogures en 2015 (Tasa respuesta: 92,33%)</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>50,09%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>58,29%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>59,81%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>64,88%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
   </si>
   <si>
     <t>23,78%</t>
   </si>
   <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
   </si>
   <si>
     <t>60,9%</t>
   </si>
   <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
+  </si>
+  <si>
     <t>57,75%</t>
   </si>
   <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>55,78%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>62,29%</t>
+    <t>62,21%</t>
   </si>
 </sst>
 </file>
@@ -2021,7 +1976,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9F9F5E-89A1-4C6A-8F0B-AB2DEC31D572}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAC544ED-079B-4E31-8CAC-B31FC190B2DE}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2495,10 +2450,10 @@
         <v>31</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -2507,13 +2462,13 @@
         <v>4007</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M11" s="7">
         <v>11</v>
@@ -2522,13 +2477,13 @@
         <v>7218</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2543,13 +2498,13 @@
         <v>7579</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="H12" s="7">
         <v>14</v>
@@ -2558,13 +2513,13 @@
         <v>9393</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="M12" s="7">
         <v>25</v>
@@ -2573,13 +2528,13 @@
         <v>16972</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2594,13 +2549,13 @@
         <v>12203</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="H13" s="7">
         <v>26</v>
@@ -2609,13 +2564,13 @@
         <v>16620</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M13" s="7">
         <v>44</v>
@@ -2624,13 +2579,13 @@
         <v>28822</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2645,13 +2600,13 @@
         <v>56662</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H14" s="7">
         <v>82</v>
@@ -2660,13 +2615,13 @@
         <v>55586</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M14" s="7">
         <v>167</v>
@@ -2675,13 +2630,13 @@
         <v>112248</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2737,7 +2692,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2749,7 +2704,7 @@
         <v>7016</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>68</v>
@@ -2785,7 +2740,7 @@
         <v>74</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2800,13 +2755,13 @@
         <v>12094</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -2815,10 +2770,10 @@
         <v>10679</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>80</v>
@@ -2830,13 +2785,13 @@
         <v>22773</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2848,16 +2803,16 @@
         <v>79</v>
       </c>
       <c r="D18" s="7">
-        <v>52673</v>
+        <v>52672</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="H18" s="7">
         <v>57</v>
@@ -2866,13 +2821,13 @@
         <v>37028</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M18" s="7">
         <v>136</v>
@@ -2881,13 +2836,13 @@
         <v>89701</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2902,13 +2857,13 @@
         <v>96521</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="H19" s="7">
         <v>118</v>
@@ -2917,13 +2872,13 @@
         <v>80237</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M19" s="7">
         <v>263</v>
@@ -2932,13 +2887,13 @@
         <v>176758</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2950,16 +2905,16 @@
         <v>422</v>
       </c>
       <c r="D20" s="7">
-        <v>279742</v>
+        <v>279741</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="H20" s="7">
         <v>383</v>
@@ -2968,13 +2923,13 @@
         <v>252128</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="M20" s="7">
         <v>805</v>
@@ -2983,13 +2938,13 @@
         <v>531870</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3001,7 +2956,7 @@
         <v>676</v>
       </c>
       <c r="D21" s="7">
-        <v>448046</v>
+        <v>448045</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>21</v>
@@ -3045,7 +3000,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3057,13 +3012,13 @@
         <v>3368</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -3072,13 +3027,13 @@
         <v>2782</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M22" s="7">
         <v>9</v>
@@ -3087,13 +3042,13 @@
         <v>6149</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3111,10 +3066,10 @@
         <v>120</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="H23" s="7">
         <v>8</v>
@@ -3123,13 +3078,13 @@
         <v>5456</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M23" s="7">
         <v>13</v>
@@ -3138,13 +3093,13 @@
         <v>8777</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3159,13 +3114,13 @@
         <v>14293</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="H24" s="7">
         <v>23</v>
@@ -3174,13 +3129,13 @@
         <v>15431</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M24" s="7">
         <v>44</v>
@@ -3189,13 +3144,13 @@
         <v>29724</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3210,13 +3165,13 @@
         <v>32547</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H25" s="7">
         <v>51</v>
@@ -3225,13 +3180,13 @@
         <v>34712</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M25" s="7">
         <v>99</v>
@@ -3240,13 +3195,13 @@
         <v>67259</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3261,13 +3216,13 @@
         <v>89293</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H26" s="7">
         <v>146</v>
@@ -3276,13 +3231,13 @@
         <v>100949</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M26" s="7">
         <v>280</v>
@@ -3291,13 +3246,13 @@
         <v>190242</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3365,13 +3320,13 @@
         <v>12300</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="H28" s="7">
         <v>18</v>
@@ -3380,13 +3335,13 @@
         <v>12403</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M28" s="7">
         <v>37</v>
@@ -3395,13 +3350,13 @@
         <v>24703</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3416,13 +3371,13 @@
         <v>18625</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="H29" s="7">
         <v>29</v>
@@ -3431,13 +3386,13 @@
         <v>20143</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M29" s="7">
         <v>58</v>
@@ -3446,13 +3401,13 @@
         <v>38768</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>172</v>
+        <v>120</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>173</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3467,13 +3422,13 @@
         <v>74544</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H30" s="7">
         <v>94</v>
@@ -3482,13 +3437,13 @@
         <v>61853</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="M30" s="7">
         <v>205</v>
@@ -3497,13 +3452,13 @@
         <v>136397</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>182</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3518,13 +3473,13 @@
         <v>141270</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H31" s="7">
         <v>195</v>
@@ -3533,13 +3488,13 @@
         <v>131568</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>188</v>
+        <v>100</v>
       </c>
       <c r="M31" s="7">
         <v>406</v>
@@ -3548,13 +3503,13 @@
         <v>272839</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3569,13 +3524,13 @@
         <v>426423</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="H32" s="7">
         <v>611</v>
@@ -3584,13 +3539,13 @@
         <v>408664</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="M32" s="7">
         <v>1253</v>
@@ -3599,13 +3554,13 @@
         <v>835086</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3661,7 +3616,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -3681,7 +3636,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A76A60E-AD79-4D2B-9E4F-FE9977D59049}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4A082DB-F48B-4FD3-9B12-76E5D83247B4}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3698,7 +3653,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4101,13 +4056,13 @@
         <v>672</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>68</v>
+        <v>197</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -4116,13 +4071,13 @@
         <v>2937</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -4131,13 +4086,13 @@
         <v>3609</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>208</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4152,13 +4107,13 @@
         <v>6604</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -4167,13 +4122,13 @@
         <v>4031</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="M11" s="7">
         <v>14</v>
@@ -4182,13 +4137,13 @@
         <v>10635</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4203,13 +4158,13 @@
         <v>5843</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="H12" s="7">
         <v>14</v>
@@ -4218,13 +4173,13 @@
         <v>10155</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="M12" s="7">
         <v>22</v>
@@ -4233,10 +4188,10 @@
         <v>15998</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>221</v>
@@ -4254,13 +4209,13 @@
         <v>9747</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="H13" s="7">
         <v>16</v>
@@ -4269,13 +4224,13 @@
         <v>11153</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="M13" s="7">
         <v>30</v>
@@ -4284,13 +4239,13 @@
         <v>20900</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>229</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4305,13 +4260,13 @@
         <v>59135</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H14" s="7">
         <v>89</v>
@@ -4320,13 +4275,13 @@
         <v>60537</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="M14" s="7">
         <v>173</v>
@@ -4335,13 +4290,13 @@
         <v>119671</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4397,7 +4352,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4409,13 +4364,13 @@
         <v>11049</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -4424,13 +4379,13 @@
         <v>13323</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>118</v>
+        <v>244</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="M16" s="7">
         <v>35</v>
@@ -4439,13 +4394,13 @@
         <v>24372</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>118</v>
+        <v>247</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4460,13 +4415,13 @@
         <v>16045</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>252</v>
+        <v>23</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H17" s="7">
         <v>33</v>
@@ -4475,13 +4430,13 @@
         <v>22609</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="M17" s="7">
         <v>57</v>
@@ -4490,13 +4445,13 @@
         <v>38654</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4511,13 +4466,13 @@
         <v>30877</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H18" s="7">
         <v>39</v>
@@ -4526,13 +4481,13 @@
         <v>27381</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="M18" s="7">
         <v>84</v>
@@ -4541,13 +4496,13 @@
         <v>58259</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>267</v>
+        <v>198</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4562,13 +4517,13 @@
         <v>56628</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="H19" s="7">
         <v>76</v>
@@ -4577,13 +4532,13 @@
         <v>52695</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="M19" s="7">
         <v>159</v>
@@ -4592,13 +4547,13 @@
         <v>109324</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4613,13 +4568,13 @@
         <v>335421</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="H20" s="7">
         <v>432</v>
@@ -4628,13 +4583,13 @@
         <v>297825</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="M20" s="7">
         <v>911</v>
@@ -4643,13 +4598,13 @@
         <v>633246</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4705,7 +4660,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4717,13 +4672,13 @@
         <v>3363</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>208</v>
+        <v>68</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -4732,13 +4687,13 @@
         <v>4767</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>289</v>
+        <v>160</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -4747,13 +4702,13 @@
         <v>8129</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4768,13 +4723,13 @@
         <v>4040</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="H23" s="7">
         <v>6</v>
@@ -4783,13 +4738,13 @@
         <v>4628</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>299</v>
+        <v>74</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>125</v>
+        <v>293</v>
       </c>
       <c r="M23" s="7">
         <v>12</v>
@@ -4798,13 +4753,13 @@
         <v>8668</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4819,13 +4774,13 @@
         <v>11247</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="H24" s="7">
         <v>20</v>
@@ -4834,13 +4789,13 @@
         <v>13534</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="M24" s="7">
         <v>36</v>
@@ -4849,13 +4804,13 @@
         <v>24781</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4870,13 +4825,13 @@
         <v>17405</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="H25" s="7">
         <v>22</v>
@@ -4885,13 +4840,13 @@
         <v>16293</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>315</v>
+        <v>223</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="M25" s="7">
         <v>48</v>
@@ -4900,13 +4855,13 @@
         <v>33698</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4921,13 +4876,13 @@
         <v>118262</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="H26" s="7">
         <v>162</v>
@@ -4936,13 +4891,13 @@
         <v>114094</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="M26" s="7">
         <v>327</v>
@@ -4951,13 +4906,13 @@
         <v>232356</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5025,13 +4980,13 @@
         <v>15084</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>330</v>
+        <v>241</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>168</v>
+        <v>322</v>
       </c>
       <c r="H28" s="7">
         <v>30</v>
@@ -5040,13 +4995,13 @@
         <v>21027</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>207</v>
+        <v>282</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>170</v>
+        <v>324</v>
       </c>
       <c r="M28" s="7">
         <v>52</v>
@@ -5055,13 +5010,13 @@
         <v>36111</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>333</v>
+        <v>244</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5076,13 +5031,13 @@
         <v>26689</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>255</v>
+        <v>72</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>335</v>
+        <v>157</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>336</v>
+        <v>113</v>
       </c>
       <c r="H29" s="7">
         <v>45</v>
@@ -5091,13 +5046,13 @@
         <v>31268</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>211</v>
+        <v>249</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>338</v>
+        <v>220</v>
       </c>
       <c r="M29" s="7">
         <v>83</v>
@@ -5106,13 +5061,13 @@
         <v>57957</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>253</v>
+        <v>330</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5127,13 +5082,13 @@
         <v>47967</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="H30" s="7">
         <v>73</v>
@@ -5142,13 +5097,13 @@
         <v>51070</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>346</v>
+        <v>131</v>
       </c>
       <c r="M30" s="7">
         <v>142</v>
@@ -5157,13 +5112,13 @@
         <v>99037</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5178,13 +5133,13 @@
         <v>83781</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="H31" s="7">
         <v>114</v>
@@ -5193,13 +5148,13 @@
         <v>80141</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="M31" s="7">
         <v>237</v>
@@ -5208,13 +5163,13 @@
         <v>163922</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>304</v>
+        <v>345</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5229,13 +5184,13 @@
         <v>513459</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="H32" s="7">
         <v>683</v>
@@ -5244,13 +5199,13 @@
         <v>472456</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="M32" s="7">
         <v>1412</v>
@@ -5259,13 +5214,13 @@
         <v>985914</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5321,7 +5276,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -5341,7 +5296,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2042C89-47ED-48B4-AD92-F629EA72F9C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C377715-70C8-40F0-BA3E-DFDF7AE74642}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5358,7 +5313,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5737,13 +5692,13 @@
         <v>1377</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -5752,13 +5707,13 @@
         <v>549</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>370</v>
+        <v>283</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -5767,13 +5722,13 @@
         <v>1926</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5788,13 +5743,13 @@
         <v>1728</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -5803,13 +5758,13 @@
         <v>1989</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="M11" s="7">
         <v>5</v>
@@ -5818,13 +5773,13 @@
         <v>3717</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>379</v>
+        <v>112</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5839,13 +5794,13 @@
         <v>5655</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="H12" s="7">
         <v>18</v>
@@ -5854,13 +5809,13 @@
         <v>12329</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="M12" s="7">
         <v>25</v>
@@ -5869,13 +5824,13 @@
         <v>17984</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5890,13 +5845,13 @@
         <v>17523</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -5905,13 +5860,13 @@
         <v>10053</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>270</v>
+        <v>383</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="M13" s="7">
         <v>38</v>
@@ -5920,13 +5875,13 @@
         <v>27576</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5941,13 +5896,13 @@
         <v>40310</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="H14" s="7">
         <v>48</v>
@@ -5956,13 +5911,13 @@
         <v>31235</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="M14" s="7">
         <v>109</v>
@@ -5971,13 +5926,13 @@
         <v>71545</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6033,7 +5988,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6045,13 +6000,13 @@
         <v>6291</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>409</v>
+        <v>363</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -6060,13 +6015,13 @@
         <v>9884</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>411</v>
+        <v>156</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="M16" s="7">
         <v>25</v>
@@ -6075,13 +6030,13 @@
         <v>16175</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6096,13 +6051,13 @@
         <v>10133</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="H17" s="7">
         <v>20</v>
@@ -6111,13 +6066,13 @@
         <v>13881</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>162</v>
+        <v>407</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>420</v>
+        <v>260</v>
       </c>
       <c r="M17" s="7">
         <v>33</v>
@@ -6126,13 +6081,13 @@
         <v>24014</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>73</v>
+        <v>155</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6147,13 +6102,13 @@
         <v>49443</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>424</v>
+        <v>32</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="H18" s="7">
         <v>73</v>
@@ -6162,13 +6117,13 @@
         <v>49949</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="M18" s="7">
         <v>142</v>
@@ -6177,13 +6132,13 @@
         <v>99392</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>429</v>
+        <v>367</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6198,13 +6153,13 @@
         <v>118734</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>144</v>
+        <v>418</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="H19" s="7">
         <v>148</v>
@@ -6213,13 +6168,13 @@
         <v>99745</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="M19" s="7">
         <v>315</v>
@@ -6228,13 +6183,13 @@
         <v>218478</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6249,13 +6204,13 @@
         <v>274721</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>440</v>
+        <v>64</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>441</v>
+        <v>391</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="H20" s="7">
         <v>398</v>
@@ -6264,13 +6219,13 @@
         <v>262812</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="M20" s="7">
         <v>791</v>
@@ -6279,13 +6234,13 @@
         <v>537532</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>236</v>
+        <v>432</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6341,7 +6296,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6353,13 +6308,13 @@
         <v>3929</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>379</v>
+        <v>68</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -6368,13 +6323,13 @@
         <v>3945</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>409</v>
+        <v>435</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="M22" s="7">
         <v>11</v>
@@ -6383,13 +6338,13 @@
         <v>7875</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>74</v>
+        <v>439</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6404,13 +6359,13 @@
         <v>5245</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>289</v>
+        <v>160</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>454</v>
+        <v>402</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="H23" s="7">
         <v>13</v>
@@ -6419,13 +6374,13 @@
         <v>9104</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="M23" s="7">
         <v>21</v>
@@ -6434,13 +6389,13 @@
         <v>14349</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>460</v>
+        <v>368</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>130</v>
+        <v>446</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6455,13 +6410,13 @@
         <v>13511</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>122</v>
+        <v>434</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="H24" s="7">
         <v>28</v>
@@ -6470,13 +6425,13 @@
         <v>18736</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="M24" s="7">
         <v>48</v>
@@ -6485,13 +6440,13 @@
         <v>32246</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6506,13 +6461,13 @@
         <v>37944</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="H25" s="7">
         <v>54</v>
@@ -6521,13 +6476,13 @@
         <v>35438</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="M25" s="7">
         <v>109</v>
@@ -6536,13 +6491,13 @@
         <v>73382</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6557,13 +6512,13 @@
         <v>107891</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>480</v>
+        <v>237</v>
       </c>
       <c r="H26" s="7">
         <v>133</v>
@@ -6572,13 +6527,13 @@
         <v>89222</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>445</v>
+        <v>468</v>
       </c>
       <c r="M26" s="7">
         <v>288</v>
@@ -6587,13 +6542,13 @@
         <v>197113</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>484</v>
+        <v>147</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6661,13 +6616,13 @@
         <v>11597</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>79</v>
+        <v>471</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>486</v>
+        <v>360</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="H28" s="7">
         <v>23</v>
@@ -6676,13 +6631,13 @@
         <v>14379</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>490</v>
+        <v>214</v>
       </c>
       <c r="M28" s="7">
         <v>39</v>
@@ -6691,13 +6646,13 @@
         <v>25976</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>82</v>
+        <v>475</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>292</v>
+        <v>477</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6712,13 +6667,13 @@
         <v>17106</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>493</v>
+        <v>405</v>
       </c>
       <c r="H29" s="7">
         <v>36</v>
@@ -6727,13 +6682,13 @@
         <v>24974</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="M29" s="7">
         <v>59</v>
@@ -6742,13 +6697,13 @@
         <v>42080</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>117</v>
+        <v>484</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6763,13 +6718,13 @@
         <v>68609</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>499</v>
+        <v>377</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="H30" s="7">
         <v>119</v>
@@ -6778,13 +6733,13 @@
         <v>81014</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="M30" s="7">
         <v>215</v>
@@ -6793,13 +6748,13 @@
         <v>149623</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>507</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6814,13 +6769,13 @@
         <v>174201</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>510</v>
+        <v>494</v>
       </c>
       <c r="H31" s="7">
         <v>216</v>
@@ -6829,13 +6784,13 @@
         <v>145236</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>57</v>
+        <v>495</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="M31" s="7">
         <v>462</v>
@@ -6844,13 +6799,13 @@
         <v>319437</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6865,13 +6820,13 @@
         <v>422921</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="H32" s="7">
         <v>579</v>
@@ -6880,13 +6835,13 @@
         <v>383269</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="M32" s="7">
         <v>1188</v>
@@ -6895,13 +6850,13 @@
         <v>806190</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6957,7 +6912,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
